--- a/Data_science_outputs/1000pop/avg_analysis/avg_analysis_2.xlsx
+++ b/Data_science_outputs/1000pop/avg_analysis/avg_analysis_2.xlsx
@@ -493,13 +493,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>17482.92260338095</v>
+        <v>10613.61331316024</v>
       </c>
       <c r="C3" t="n">
         <v>7643.809767460352</v>
       </c>
       <c r="D3" t="n">
-        <v>7567.760992423891</v>
+        <v>697.1794862480978</v>
       </c>
       <c r="E3" t="n">
         <v>2263.691175479452</v>
@@ -514,13 +514,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>8864.571215185797</v>
+        <v>4446.758018384022</v>
       </c>
       <c r="C4" t="n">
         <v>3920.182180238488</v>
       </c>
       <c r="D4" t="n">
-        <v>7218.191299561768</v>
+        <v>538.3281476284172</v>
       </c>
       <c r="E4" t="n">
         <v>672.5794882241024</v>
@@ -535,13 +535,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3305.563997260273</v>
+        <v>3238.336364383562</v>
       </c>
       <c r="C5" t="n">
         <v>1894.291</v>
       </c>
       <c r="D5" t="n">
-        <v>23.28790136986306</v>
+        <v>27.94551232876716</v>
       </c>
       <c r="E5" t="n">
         <v>901.8501999999974</v>
@@ -556,13 +556,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>9158.718021232882</v>
+        <v>7017.177026712333</v>
       </c>
       <c r="C6" t="n">
         <v>4176.429821428572</v>
       </c>
       <c r="D6" t="n">
-        <v>167.6720910958898</v>
+        <v>158.3569445205474</v>
       </c>
       <c r="E6" t="n">
         <v>1675.803008219177</v>
@@ -577,13 +577,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>18400.81960273976</v>
+        <v>9203.445441095897</v>
       </c>
       <c r="C7" t="n">
         <v>6346.021285714287</v>
       </c>
       <c r="D7" t="n">
-        <v>7676.931609589044</v>
+        <v>657.3151780821913</v>
       </c>
       <c r="E7" t="n">
         <v>2343.94536712329</v>
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>23221.98018287671</v>
+        <v>14316.09068561651</v>
       </c>
       <c r="C8" t="n">
         <v>10885.53692857145</v>
       </c>
       <c r="D8" t="n">
-        <v>15360</v>
+        <v>1280</v>
       </c>
       <c r="E8" t="n">
         <v>2906.837466438361</v>
@@ -619,13 +619,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>32182.21522465765</v>
+        <v>20122.64999452061</v>
       </c>
       <c r="C9" t="n">
         <v>17756.09571428577</v>
       </c>
       <c r="D9" t="n">
-        <v>15360.00003561644</v>
+        <v>1284.657580821918</v>
       </c>
       <c r="E9" t="n">
         <v>3616.871189041096</v>
@@ -644,7 +644,7 @@
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="n">
-        <v>25175408.54886853</v>
+        <v>15283603.17095072</v>
       </c>
       <c r="G10" t="inlineStr"/>
     </row>
@@ -662,7 +662,7 @@
         <v>11007086.0651429</v>
       </c>
       <c r="G11" t="n">
-        <v>0.4376539671918411</v>
+        <v>0.7210308521362604</v>
       </c>
     </row>
     <row r="12">
@@ -676,10 +676,10 @@
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="n">
-        <v>10897575.82909041</v>
+        <v>1003938.46019726</v>
       </c>
       <c r="G12" t="n">
-        <v>0.4328658980026835</v>
+        <v>0.06568728911422068</v>
       </c>
     </row>
     <row r="13">
@@ -696,7 +696,7 @@
         <v>3259715.292690411</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1294801348054752</v>
+        <v>0.2132818587495189</v>
       </c>
     </row>
   </sheetData>
